--- a/testy.xlsx
+++ b/testy.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenaj\Desktop\Studia\.SEM 4\kodowanie\Lista 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lena\Desktop\studia\.SEMESTR 4\Kodowanie i kompresja danych\Lista 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C516AD9-21FD-4CBC-8EB2-23EB9BE5B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0011C0-8608-498E-95D9-FA58D67ED3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3DAD34E8-95EF-44F8-8306-6E0B6097451A}"/>
+    <workbookView xWindow="-16320" yWindow="-3585" windowWidth="16440" windowHeight="29040" xr2:uid="{3DAD34E8-95EF-44F8-8306-6E0B6097451A}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_tests" sheetId="1" r:id="rId1"/>
-    <sheet name="png, jpg, gif" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Omega</t>
   </si>
@@ -214,9 +212,6 @@
   </si>
   <si>
     <t>0.13 s</t>
-  </si>
-  <si>
-    <t>png 1 MB</t>
   </si>
 </sst>
 </file>
@@ -680,16 +675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA55DEB9-C562-4C0C-A86F-D88EC7932F04}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="16.6328125" style="1"/>
+    <col min="1" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -704,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -715,7 +710,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -732,7 +727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -749,7 +744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +772,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -794,7 +789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -811,7 +806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -828,7 +823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -839,7 +834,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -856,7 +851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -873,7 +868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -901,7 +896,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
@@ -918,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -935,294 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C16:F16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54CD42F-B798-4212-94C0-6B16017D7214}">
-  <dimension ref="B3:F19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="16.6328125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
